--- a/data/trans_camb/IP16B06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B06-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-78,5; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 0,0</t>
+          <t>-65,5; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,5; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 0,0</t>
+          <t>-65,5; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/IP16B06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-37,49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-37,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-79,78; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-37,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-37,49%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-79,78; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-27,08</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-27,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,5; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 0,0</t>
+          <t>-60,45; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-27,08%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-27,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,5; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 0,0</t>
+          <t>-60,45; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
